--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H2">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N2">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O2">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P2">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q2">
-        <v>16.07940912216223</v>
+        <v>8.704121384509444</v>
       </c>
       <c r="R2">
-        <v>144.71468209946</v>
+        <v>78.337092460585</v>
       </c>
       <c r="S2">
-        <v>0.01094570203430622</v>
+        <v>0.003517477363852307</v>
       </c>
       <c r="T2">
-        <v>0.01094570203430622</v>
+        <v>0.003517477363852308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H3">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.383754</v>
       </c>
       <c r="O3">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P3">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q3">
-        <v>195.7686057484912</v>
+        <v>207.5433980226989</v>
       </c>
       <c r="R3">
-        <v>1761.91745173642</v>
+        <v>1867.89058220429</v>
       </c>
       <c r="S3">
-        <v>0.1332651473642212</v>
+        <v>0.08387167093752299</v>
       </c>
       <c r="T3">
-        <v>0.1332651473642212</v>
+        <v>0.083871670937523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H4">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N4">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O4">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P4">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q4">
-        <v>176.1558615123511</v>
+        <v>474.3765388835278</v>
       </c>
       <c r="R4">
-        <v>1585.40275361116</v>
+        <v>4269.388849951751</v>
       </c>
       <c r="S4">
-        <v>0.1199142056192314</v>
+        <v>0.1917032936184695</v>
       </c>
       <c r="T4">
-        <v>0.1199142056192314</v>
+        <v>0.1917032936184695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H5">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I5">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J5">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N5">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O5">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P5">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q5">
-        <v>6.021772336324444</v>
+        <v>3.074774781851112</v>
       </c>
       <c r="R5">
-        <v>54.19595102692</v>
+        <v>27.67297303666</v>
       </c>
       <c r="S5">
-        <v>0.004099188297969746</v>
+        <v>0.00124256662060725</v>
       </c>
       <c r="T5">
-        <v>0.004099188297969745</v>
+        <v>0.001242566620607251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>11.383754</v>
       </c>
       <c r="O6">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P6">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q6">
-        <v>73.31575218098223</v>
+        <v>73.31575218098224</v>
       </c>
       <c r="R6">
         <v>659.8417696288401</v>
       </c>
       <c r="S6">
-        <v>0.04990807632899853</v>
+        <v>0.02962809079953389</v>
       </c>
       <c r="T6">
-        <v>0.04990807632899853</v>
+        <v>0.0296280907995339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N7">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O7">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P7">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q7">
-        <v>65.97073845670222</v>
+        <v>167.5759050714445</v>
       </c>
       <c r="R7">
-        <v>593.73664611032</v>
+        <v>1508.183145643</v>
       </c>
       <c r="S7">
-        <v>0.04490812073031621</v>
+        <v>0.06772015540418497</v>
       </c>
       <c r="T7">
-        <v>0.04490812073031621</v>
+        <v>0.06772015540418497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H8">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I8">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J8">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N8">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O8">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P8">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q8">
-        <v>3.754006538276667</v>
+        <v>1.754318157092667</v>
       </c>
       <c r="R8">
-        <v>33.78605884449</v>
+        <v>15.788863413834</v>
       </c>
       <c r="S8">
-        <v>0.002555456900849618</v>
+        <v>0.0007089485697603619</v>
       </c>
       <c r="T8">
-        <v>0.002555456900849618</v>
+        <v>0.0007089485697603619</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H9">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I9">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J9">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>11.383754</v>
       </c>
       <c r="O9">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P9">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q9">
-        <v>45.70544977030335</v>
+        <v>41.83043129245733</v>
       </c>
       <c r="R9">
-        <v>411.3490479327301</v>
+        <v>376.473881632116</v>
       </c>
       <c r="S9">
-        <v>0.03111297378708756</v>
+        <v>0.01690435929044554</v>
       </c>
       <c r="T9">
-        <v>0.03111297378708756</v>
+        <v>0.01690435929044554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H10">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N10">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O10">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P10">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q10">
-        <v>41.12652715339334</v>
+        <v>95.61072722896668</v>
       </c>
       <c r="R10">
-        <v>370.1387443805401</v>
+        <v>860.4965450607001</v>
       </c>
       <c r="S10">
-        <v>0.02799597351536968</v>
+        <v>0.03863785371466322</v>
       </c>
       <c r="T10">
-        <v>0.02799597351536968</v>
+        <v>0.03863785371466322</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H11">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I11">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J11">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N11">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O11">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P11">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q11">
-        <v>35.02282723386711</v>
+        <v>17.65402000161411</v>
       </c>
       <c r="R11">
-        <v>315.205445104804</v>
+        <v>158.886180014527</v>
       </c>
       <c r="S11">
-        <v>0.02384101482762352</v>
+        <v>0.007134277314558988</v>
       </c>
       <c r="T11">
-        <v>0.02384101482762351</v>
+        <v>0.00713427731455899</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H12">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I12">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J12">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>11.383754</v>
       </c>
       <c r="O12">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P12">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q12">
-        <v>426.4068414985675</v>
+        <v>420.9471741072442</v>
       </c>
       <c r="R12">
-        <v>3837.661573487108</v>
+        <v>3788.524566965198</v>
       </c>
       <c r="S12">
-        <v>0.2902670239293804</v>
+        <v>0.1701116161976958</v>
       </c>
       <c r="T12">
-        <v>0.2902670239293804</v>
+        <v>0.1701116161976959</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H13">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I13">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J13">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N13">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O13">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P13">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q13">
-        <v>383.6879985519315</v>
+        <v>962.1479912550944</v>
       </c>
       <c r="R13">
-        <v>3453.191986967384</v>
+        <v>8659.33192129585</v>
       </c>
       <c r="S13">
-        <v>0.2611871166646459</v>
+        <v>0.3888196901687051</v>
       </c>
       <c r="T13">
-        <v>0.2611871166646459</v>
+        <v>0.3888196901687052</v>
       </c>
     </row>
   </sheetData>
